--- a/경제통계조사/종합.xlsx
+++ b/경제통계조사/종합.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3.sbg\workspace\MyStock\경제통계조사\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="0.종합" sheetId="3" r:id="rId1"/>
     <sheet name="1.기업" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="194">
   <si>
     <t>통계표</t>
   </si>
@@ -617,7 +618,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="183" formatCode="#,##0.000000_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.000000_ "/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -649,6 +650,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -778,7 +780,7 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,7 +795,7 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10609,7 +10611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -10664,7 +10666,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="27">
+    <row r="4" spans="2:8">
       <c r="B4" s="2" t="s">
         <v>142</v>
       </c>
@@ -10710,7 +10712,7 @@
         <v>6615</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="40.5">
+    <row r="6" spans="2:8" ht="27">
       <c r="B6" s="2" t="s">
         <v>142</v>
       </c>
@@ -10733,7 +10735,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="54">
+    <row r="7" spans="2:8" ht="40.5">
       <c r="B7" s="2" t="s">
         <v>142</v>
       </c>
@@ -10756,7 +10758,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="40.5">
+    <row r="8" spans="2:8" ht="27">
       <c r="B8" s="2" t="s">
         <v>142</v>
       </c>
@@ -10779,7 +10781,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="54">
+    <row r="9" spans="2:8" ht="27">
       <c r="B9" s="2" t="s">
         <v>142</v>
       </c>
@@ -10802,7 +10804,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="54">
+    <row r="10" spans="2:8" ht="27">
       <c r="B10" s="2" t="s">
         <v>142</v>
       </c>
@@ -10825,7 +10827,7 @@
         <v>3344</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="40.5">
+    <row r="11" spans="2:8" ht="27">
       <c r="B11" s="2" t="s">
         <v>142</v>
       </c>
@@ -10848,7 +10850,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="54">
+    <row r="12" spans="2:8" ht="27">
       <c r="B12" s="2" t="s">
         <v>142</v>
       </c>
@@ -10871,7 +10873,7 @@
         <v>22786</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="54">
+    <row r="13" spans="2:8" ht="40.5">
       <c r="B13" s="2" t="s">
         <v>142</v>
       </c>
@@ -10894,7 +10896,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="40.5">
+    <row r="14" spans="2:8" ht="27">
       <c r="B14" s="2" t="s">
         <v>142</v>
       </c>
@@ -10917,7 +10919,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="54">
+    <row r="15" spans="2:8" ht="27">
       <c r="B15" s="2" t="s">
         <v>142</v>
       </c>
@@ -10940,7 +10942,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="40.5">
+    <row r="16" spans="2:8" ht="27">
       <c r="B16" s="2" t="s">
         <v>142</v>
       </c>
@@ -10963,7 +10965,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="27">
+    <row r="17" spans="2:8">
       <c r="B17" s="2" t="s">
         <v>142</v>
       </c>
@@ -10986,7 +10988,7 @@
         <v>3760</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="54">
+    <row r="18" spans="2:8" ht="40.5">
       <c r="B18" s="2" t="s">
         <v>142</v>
       </c>
@@ -11009,7 +11011,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="67.5">
+    <row r="19" spans="2:8" ht="40.5">
       <c r="B19" s="2" t="s">
         <v>142</v>
       </c>
@@ -11032,7 +11034,7 @@
         <v>18324</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="54">
+    <row r="20" spans="2:8" ht="27">
       <c r="B20" s="2" t="s">
         <v>142</v>
       </c>
@@ -11055,7 +11057,7 @@
         <v>2751</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="27">
+    <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
         <v>142</v>
       </c>
@@ -11078,7 +11080,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="40.5">
+    <row r="22" spans="2:8" ht="27">
       <c r="B22" s="2" t="s">
         <v>142</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="40.5">
+    <row r="23" spans="2:8" ht="27">
       <c r="B23" s="2" t="s">
         <v>142</v>
       </c>
@@ -11170,7 +11172,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="40.5">
+    <row r="26" spans="2:8" ht="27">
       <c r="B26" s="2" t="s">
         <v>142</v>
       </c>
@@ -11193,7 +11195,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="54">
+    <row r="27" spans="2:8" ht="27">
       <c r="B27" s="2" t="s">
         <v>142</v>
       </c>
@@ -11239,7 +11241,7 @@
         <v>4776</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="27">
+    <row r="29" spans="2:8">
       <c r="B29" s="2" t="s">
         <v>142</v>
       </c>
@@ -11285,7 +11287,7 @@
         <v>-979</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="54">
+    <row r="31" spans="2:8" ht="40.5">
       <c r="B31" s="2" t="s">
         <v>142</v>
       </c>
@@ -11308,7 +11310,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="27">
+    <row r="32" spans="2:8">
       <c r="B32" s="2" t="s">
         <v>142</v>
       </c>
@@ -11331,7 +11333,7 @@
         <v>25065</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="27">
+    <row r="33" spans="2:10">
       <c r="B33" s="2" t="s">
         <v>142</v>
       </c>
@@ -11377,7 +11379,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="27">
+    <row r="35" spans="2:10">
       <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
@@ -11414,7 +11416,7 @@
         <v>151312</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="27">
+    <row r="40" spans="2:10">
       <c r="B40" s="1" t="s">
         <v>0</v>
       </c>
@@ -11443,7 +11445,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="27">
+    <row r="41" spans="2:10">
       <c r="B41" s="2" t="s">
         <v>178</v>
       </c>
@@ -11472,7 +11474,7 @@
         <v>118.34</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="27">
+    <row r="42" spans="2:10">
       <c r="B42" s="2" t="s">
         <v>178</v>
       </c>
@@ -11501,7 +11503,7 @@
         <v>45.8</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="27">
+    <row r="43" spans="2:10">
       <c r="B43" s="2" t="s">
         <v>178</v>
       </c>
@@ -11530,7 +11532,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="27">
+    <row r="44" spans="2:10">
       <c r="B44" s="2" t="s">
         <v>178</v>
       </c>
@@ -11559,7 +11561,7 @@
         <v>141.04</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="27">
+    <row r="45" spans="2:10">
       <c r="B45" s="2" t="s">
         <v>178</v>
       </c>
@@ -11588,7 +11590,7 @@
         <v>128.75</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="40.5">
+    <row r="46" spans="2:10">
       <c r="B46" s="2" t="s">
         <v>178</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="40.5">
+    <row r="47" spans="2:10" ht="27">
       <c r="B47" s="2" t="s">
         <v>178</v>
       </c>
@@ -11646,7 +11648,7 @@
         <v>3.88</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="27">
+    <row r="48" spans="2:10">
       <c r="B48" s="2" t="s">
         <v>178</v>
       </c>
@@ -11675,7 +11677,7 @@
         <v>328.92</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="40.5">
+    <row r="49" spans="2:10">
       <c r="B49" s="2" t="s">
         <v>178</v>
       </c>
@@ -11704,7 +11706,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="40.5">
+    <row r="50" spans="2:10">
       <c r="B50" s="2" t="s">
         <v>178</v>
       </c>
@@ -11733,7 +11735,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="40.5">
+    <row r="51" spans="2:10">
       <c r="B51" s="2" t="s">
         <v>178</v>
       </c>
@@ -11762,7 +11764,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="40.5">
+    <row r="52" spans="2:10" ht="27">
       <c r="B52" s="2" t="s">
         <v>178</v>
       </c>
@@ -11791,7 +11793,7 @@
         <v>18.59</v>
       </c>
     </row>
-    <row r="53" spans="2:10" ht="27">
+    <row r="53" spans="2:10">
       <c r="B53" s="2" t="s">
         <v>178</v>
       </c>
@@ -11820,7 +11822,7 @@
         <v>-1.05</v>
       </c>
     </row>
-    <row r="54" spans="2:10" ht="40.5">
+    <row r="54" spans="2:10">
       <c r="B54" s="2" t="s">
         <v>178</v>
       </c>
@@ -11849,7 +11851,7 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="55" spans="2:10" ht="27">
+    <row r="55" spans="2:10">
       <c r="B55" s="2" t="s">
         <v>178</v>
       </c>
@@ -11878,7 +11880,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="56" spans="2:10" ht="27">
+    <row r="56" spans="2:10">
       <c r="B56" s="2" t="s">
         <v>178</v>
       </c>
@@ -11907,7 +11909,7 @@
         <v>76.27</v>
       </c>
     </row>
-    <row r="57" spans="2:10" ht="27">
+    <row r="57" spans="2:10">
       <c r="B57" s="2" t="s">
         <v>178</v>
       </c>
@@ -11936,7 +11938,7 @@
         <v>56.73</v>
       </c>
     </row>
-    <row r="58" spans="2:10" ht="27">
+    <row r="58" spans="2:10">
       <c r="B58" s="2" t="s">
         <v>178</v>
       </c>
@@ -11965,7 +11967,7 @@
         <v>23.43</v>
       </c>
     </row>
-    <row r="59" spans="2:10" ht="27">
+    <row r="59" spans="2:10">
       <c r="B59" s="2" t="s">
         <v>178</v>
       </c>
@@ -11994,7 +11996,7 @@
         <v>145.11000000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:10" ht="27">
+    <row r="60" spans="2:10">
       <c r="B60" s="2" t="s">
         <v>178</v>
       </c>
@@ -12023,7 +12025,7 @@
         <v>105.13</v>
       </c>
     </row>
-    <row r="61" spans="2:10" ht="40.5">
+    <row r="61" spans="2:10">
       <c r="B61" s="2" t="s">
         <v>178</v>
       </c>
@@ -12052,7 +12054,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="62" spans="2:10" ht="40.5">
+    <row r="62" spans="2:10" ht="27">
       <c r="B62" s="2" t="s">
         <v>178</v>
       </c>
@@ -12081,7 +12083,7 @@
         <v>4.5599999999999996</v>
       </c>
     </row>
-    <row r="63" spans="2:10" ht="27">
+    <row r="63" spans="2:10">
       <c r="B63" s="2" t="s">
         <v>178</v>
       </c>
@@ -12110,7 +12112,7 @@
         <v>541.44000000000005</v>
       </c>
     </row>
-    <row r="64" spans="2:10" ht="40.5">
+    <row r="64" spans="2:10">
       <c r="B64" s="2" t="s">
         <v>178</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="65" spans="2:10" ht="40.5">
+    <row r="65" spans="2:10">
       <c r="B65" s="2" t="s">
         <v>178</v>
       </c>
@@ -12168,7 +12170,7 @@
         <v>3.03</v>
       </c>
     </row>
-    <row r="66" spans="2:10" ht="40.5">
+    <row r="66" spans="2:10">
       <c r="B66" s="2" t="s">
         <v>178</v>
       </c>
@@ -12197,7 +12199,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="67" spans="2:10" ht="40.5">
+    <row r="67" spans="2:10" ht="27">
       <c r="B67" s="2" t="s">
         <v>178</v>
       </c>
@@ -12226,7 +12228,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="68" spans="2:10" ht="27">
+    <row r="68" spans="2:10">
       <c r="B68" s="2" t="s">
         <v>178</v>
       </c>
@@ -12255,7 +12257,7 @@
         <v>-2.34</v>
       </c>
     </row>
-    <row r="69" spans="2:10" ht="40.5">
+    <row r="69" spans="2:10">
       <c r="B69" s="2" t="s">
         <v>178</v>
       </c>
@@ -12284,7 +12286,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="70" spans="2:10" ht="27">
+    <row r="70" spans="2:10">
       <c r="B70" s="2" t="s">
         <v>178</v>
       </c>
@@ -12316,5 +12318,5011 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:BR28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="5" max="67" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:70" ht="23.25" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="6">
+        <v>55651187</v>
+      </c>
+      <c r="F4" s="6">
+        <v>55475785.299999997</v>
+      </c>
+      <c r="G4" s="6">
+        <v>56262064.799999997</v>
+      </c>
+      <c r="H4" s="6">
+        <v>56459239.5</v>
+      </c>
+      <c r="I4" s="6">
+        <v>56466976.899999999</v>
+      </c>
+      <c r="J4" s="6">
+        <v>57079204.399999999</v>
+      </c>
+      <c r="K4" s="6">
+        <v>57460446.200000003</v>
+      </c>
+      <c r="L4" s="6">
+        <v>57530887.600000001</v>
+      </c>
+      <c r="M4" s="6">
+        <v>57908039.799999997</v>
+      </c>
+      <c r="N4" s="6">
+        <v>58811211.600000001</v>
+      </c>
+      <c r="O4" s="6">
+        <v>58372383.799999997</v>
+      </c>
+      <c r="P4" s="6">
+        <v>59091762.899999999</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>58914721.899999999</v>
+      </c>
+      <c r="R4" s="6">
+        <v>59431561.700000003</v>
+      </c>
+      <c r="S4" s="6">
+        <v>59680254.299999997</v>
+      </c>
+      <c r="T4" s="6">
+        <v>59867493.799999997</v>
+      </c>
+      <c r="U4" s="6">
+        <v>60181583.700000003</v>
+      </c>
+      <c r="V4" s="6">
+        <v>60641882.700000003</v>
+      </c>
+      <c r="W4" s="6">
+        <v>60658374.5</v>
+      </c>
+      <c r="X4" s="6">
+        <v>60542953.899999999</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>61344662.600000001</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>61758258.600000001</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>61135707.899999999</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>61587703.399999999</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>61567657.100000001</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>62161274.200000003</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>63054099.700000003</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>63440983.299999997</v>
+      </c>
+      <c r="AG4" s="6">
+        <v>66150218.299999997</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>67443086.900000006</v>
+      </c>
+      <c r="AI4" s="6">
+        <v>67509977.299999997</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>67844079</v>
+      </c>
+      <c r="AK4" s="6">
+        <v>68330612.900000006</v>
+      </c>
+      <c r="AL4" s="6">
+        <v>68381170.099999994</v>
+      </c>
+      <c r="AM4" s="6">
+        <v>69192983.599999994</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>70583143.099999994</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>70885769.599999994</v>
+      </c>
+      <c r="AP4" s="6">
+        <v>72253525</v>
+      </c>
+      <c r="AQ4" s="6">
+        <v>74305727.700000003</v>
+      </c>
+      <c r="AR4" s="6">
+        <v>76039529.900000006</v>
+      </c>
+      <c r="AS4" s="6">
+        <v>76961117.799999997</v>
+      </c>
+      <c r="AT4" s="6">
+        <v>78405256.799999997</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>78866091.099999994</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>79426417.700000003</v>
+      </c>
+      <c r="AW4" s="6">
+        <v>80556888.900000006</v>
+      </c>
+      <c r="AX4" s="6">
+        <v>81523731.299999997</v>
+      </c>
+      <c r="AY4" s="6">
+        <v>82362402.099999994</v>
+      </c>
+      <c r="AZ4" s="6">
+        <v>83648252.599999994</v>
+      </c>
+      <c r="BA4" s="6">
+        <v>84613624.900000006</v>
+      </c>
+      <c r="BB4" s="6">
+        <v>86676255.5</v>
+      </c>
+      <c r="BC4" s="6">
+        <v>88020936.400000006</v>
+      </c>
+      <c r="BD4" s="6">
+        <v>89792872.900000006</v>
+      </c>
+      <c r="BE4" s="6">
+        <v>90010953.400000006</v>
+      </c>
+      <c r="BF4" s="6">
+        <v>91314513.400000006</v>
+      </c>
+      <c r="BG4" s="6">
+        <v>92026401</v>
+      </c>
+      <c r="BH4" s="6">
+        <v>92488272.900000006</v>
+      </c>
+      <c r="BI4" s="6">
+        <v>93651223.099999994</v>
+      </c>
+      <c r="BJ4" s="6">
+        <v>93956417.700000003</v>
+      </c>
+      <c r="BK4" s="6">
+        <v>94624528.200000003</v>
+      </c>
+      <c r="BL4" s="6">
+        <v>94769703.5</v>
+      </c>
+      <c r="BM4" s="6">
+        <v>95026206.900000006</v>
+      </c>
+      <c r="BN4" s="6">
+        <v>94651823.099999994</v>
+      </c>
+      <c r="BO4" s="6">
+        <v>96702338.799999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="6">
+        <v>55563501.799999997</v>
+      </c>
+      <c r="F5" s="6">
+        <v>55393287.799999997</v>
+      </c>
+      <c r="G5" s="6">
+        <v>56216325.700000003</v>
+      </c>
+      <c r="H5" s="6">
+        <v>56427978.100000001</v>
+      </c>
+      <c r="I5" s="6">
+        <v>56414325.600000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>57048114.899999999</v>
+      </c>
+      <c r="K5" s="6">
+        <v>57421641</v>
+      </c>
+      <c r="L5" s="6">
+        <v>57476383.5</v>
+      </c>
+      <c r="M5" s="6">
+        <v>57872412.5</v>
+      </c>
+      <c r="N5" s="6">
+        <v>58764698.600000001</v>
+      </c>
+      <c r="O5" s="6">
+        <v>58295730.600000001</v>
+      </c>
+      <c r="P5" s="6">
+        <v>59025927.5</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>58799292.200000003</v>
+      </c>
+      <c r="R5" s="6">
+        <v>59364470.200000003</v>
+      </c>
+      <c r="S5" s="6">
+        <v>59635637</v>
+      </c>
+      <c r="T5" s="6">
+        <v>59821797.200000003</v>
+      </c>
+      <c r="U5" s="6">
+        <v>59958436.600000001</v>
+      </c>
+      <c r="V5" s="6">
+        <v>60600392.200000003</v>
+      </c>
+      <c r="W5" s="6">
+        <v>60595302.899999999</v>
+      </c>
+      <c r="X5" s="6">
+        <v>60421393.799999997</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>61051236.200000003</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>60973649.700000003</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>61068266.700000003</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>61520588.700000003</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>61444229.399999999</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>62063637.799999997</v>
+      </c>
+      <c r="AE5" s="6">
+        <v>62932612.5</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>63401073.299999997</v>
+      </c>
+      <c r="AG5" s="6">
+        <v>63534394.600000001</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>64191151.600000001</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>64252164.299999997</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>64588379.899999999</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>65078723.399999999</v>
+      </c>
+      <c r="AL5" s="6">
+        <v>65092897.700000003</v>
+      </c>
+      <c r="AM5" s="6">
+        <v>65903108.5</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>67285930</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>67626056.700000003</v>
+      </c>
+      <c r="AP5" s="6">
+        <v>68572121.299999997</v>
+      </c>
+      <c r="AQ5" s="6">
+        <v>70867767.900000006</v>
+      </c>
+      <c r="AR5" s="6">
+        <v>72578984.299999997</v>
+      </c>
+      <c r="AS5" s="6">
+        <v>73456475.200000003</v>
+      </c>
+      <c r="AT5" s="6">
+        <v>74884355.799999997</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>75377848.700000003</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>75833799</v>
+      </c>
+      <c r="AW5" s="6">
+        <v>77118794.599999994</v>
+      </c>
+      <c r="AX5" s="6">
+        <v>78033664.900000006</v>
+      </c>
+      <c r="AY5" s="6">
+        <v>78577984.299999997</v>
+      </c>
+      <c r="AZ5" s="6">
+        <v>79915848</v>
+      </c>
+      <c r="BA5" s="6">
+        <v>80659466</v>
+      </c>
+      <c r="BB5" s="6">
+        <v>82026410.799999997</v>
+      </c>
+      <c r="BC5" s="6">
+        <v>83871653.599999994</v>
+      </c>
+      <c r="BD5" s="6">
+        <v>85393146.299999997</v>
+      </c>
+      <c r="BE5" s="6">
+        <v>85764998.799999997</v>
+      </c>
+      <c r="BF5" s="6">
+        <v>87119256.700000003</v>
+      </c>
+      <c r="BG5" s="6">
+        <v>87902616.799999997</v>
+      </c>
+      <c r="BH5" s="6">
+        <v>88391739.5</v>
+      </c>
+      <c r="BI5" s="6">
+        <v>89674011.200000003</v>
+      </c>
+      <c r="BJ5" s="6">
+        <v>90029306.599999994</v>
+      </c>
+      <c r="BK5" s="6">
+        <v>90654549.299999997</v>
+      </c>
+      <c r="BL5" s="6">
+        <v>90991294.599999994</v>
+      </c>
+      <c r="BM5" s="6">
+        <v>91179011.200000003</v>
+      </c>
+      <c r="BN5" s="6">
+        <v>91205236.099999994</v>
+      </c>
+      <c r="BO5" s="6">
+        <v>93298589.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="6">
+        <v>87685.3</v>
+      </c>
+      <c r="F6" s="6">
+        <v>82497.5</v>
+      </c>
+      <c r="G6" s="6">
+        <v>45739.1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>31261.4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>52651.3</v>
+      </c>
+      <c r="J6" s="6">
+        <v>31089.5</v>
+      </c>
+      <c r="K6" s="6">
+        <v>38805.1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>54504.1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>35627.300000000003</v>
+      </c>
+      <c r="N6" s="6">
+        <v>46513</v>
+      </c>
+      <c r="O6" s="6">
+        <v>76653.3</v>
+      </c>
+      <c r="P6" s="6">
+        <v>65835.3</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>115429.6</v>
+      </c>
+      <c r="R6" s="6">
+        <v>67091.5</v>
+      </c>
+      <c r="S6" s="6">
+        <v>44617.3</v>
+      </c>
+      <c r="T6" s="6">
+        <v>45696.7</v>
+      </c>
+      <c r="U6" s="6">
+        <v>223147.1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>41490.5</v>
+      </c>
+      <c r="W6" s="6">
+        <v>63071.5</v>
+      </c>
+      <c r="X6" s="6">
+        <v>121560.1</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>293426.40000000002</v>
+      </c>
+      <c r="Z6" s="6">
+        <v>784608.9</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>67441.2</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>67114.7</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>123427.8</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>97636.4</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>121487.2</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>39910</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>2615823.7000000002</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>3251935.3</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>3257812.9</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>3255699</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>3251889.6</v>
+      </c>
+      <c r="AL6" s="6">
+        <v>3288272.4</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>3289875.1</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>3297213</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>3259713</v>
+      </c>
+      <c r="AP6" s="6">
+        <v>3681403.7</v>
+      </c>
+      <c r="AQ6" s="6">
+        <v>3437959.8</v>
+      </c>
+      <c r="AR6" s="6">
+        <v>3460545.6</v>
+      </c>
+      <c r="AS6" s="6">
+        <v>3504642.6</v>
+      </c>
+      <c r="AT6" s="6">
+        <v>3520901</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>3488242.4</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>3592618.7</v>
+      </c>
+      <c r="AW6" s="6">
+        <v>3438094.3</v>
+      </c>
+      <c r="AX6" s="6">
+        <v>3490066.4</v>
+      </c>
+      <c r="AY6" s="6">
+        <v>3784417.7</v>
+      </c>
+      <c r="AZ6" s="6">
+        <v>3732404.6</v>
+      </c>
+      <c r="BA6" s="6">
+        <v>3954158.9</v>
+      </c>
+      <c r="BB6" s="6">
+        <v>4649844.8</v>
+      </c>
+      <c r="BC6" s="6">
+        <v>4149282.8</v>
+      </c>
+      <c r="BD6" s="6">
+        <v>4399726.5999999996</v>
+      </c>
+      <c r="BE6" s="6">
+        <v>4245954.5999999996</v>
+      </c>
+      <c r="BF6" s="6">
+        <v>4195256.7</v>
+      </c>
+      <c r="BG6" s="6">
+        <v>4123784.3</v>
+      </c>
+      <c r="BH6" s="6">
+        <v>4096533.4</v>
+      </c>
+      <c r="BI6" s="6">
+        <v>3977211.9</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>3927111.1</v>
+      </c>
+      <c r="BK6" s="6">
+        <v>3969978.9</v>
+      </c>
+      <c r="BL6" s="6">
+        <v>3778408.8</v>
+      </c>
+      <c r="BM6" s="6">
+        <v>3847195.6</v>
+      </c>
+      <c r="BN6" s="6">
+        <v>3446586.9</v>
+      </c>
+      <c r="BO6" s="6">
+        <v>3403749.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70">
+      <c r="E7">
+        <f>(E6/E5) * 100</f>
+        <v>0.15781096791851232</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:K7" si="0">(F6/F5) * 100</f>
+        <v>0.14893049912087003</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>8.1362663657685477E-2</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5.540053188614958E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>9.3329663059909015E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>5.4496980407673389E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>6.7579225052101871E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7" si="1">(L6/L5) * 100</f>
+        <v>9.4828687333815984E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7" si="2">(M6/M5) * 100</f>
+        <v>6.1561802007130774E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7" si="3">(N6/N5) * 100</f>
+        <v>7.91512610599861E-2</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7" si="4">(O6/O5) * 100</f>
+        <v>0.13149041827087077</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ref="P7:Q7" si="5">(P6/P5) * 100</f>
+        <v>0.11153623973126049</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>0.19631120661687149</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7" si="6">(R6/R5) * 100</f>
+        <v>0.1130162532807376</v>
+      </c>
+      <c r="S7">
+        <f t="shared" ref="S7" si="7">(S6/S5) * 100</f>
+        <v>7.4816506110264247E-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" ref="T7" si="8">(T6/T5) * 100</f>
+        <v>7.6388042718315383E-2</v>
+      </c>
+      <c r="U7">
+        <f t="shared" ref="U7" si="9">(U6/U5) * 100</f>
+        <v>0.37216964392964175</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ref="V7:W7" si="10">(V6/V5) * 100</f>
+        <v>6.8465728510582136E-2</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="10"/>
+        <v>0.10408645056876184</v>
+      </c>
+      <c r="X7">
+        <f t="shared" ref="X7" si="11">(X6/X5) * 100</f>
+        <v>0.20118718280874881</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" ref="Y7" si="12">(Y6/Y5) * 100</f>
+        <v>0.48062319170533035</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" ref="Z7" si="13">(Z6/Z5) * 100</f>
+        <v>1.2867999600817728</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" ref="AA7" si="14">(AA6/AA5) * 100</f>
+        <v>0.1104357527147565</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ref="AB7:AC7" si="15">(AB6/AB5) * 100</f>
+        <v>0.10909307179630418</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="15"/>
+        <v>0.20087777356029468</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ref="AD7" si="16">(AD6/AD5) * 100</f>
+        <v>0.15731659222850131</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" ref="AE7" si="17">(AE6/AE5) * 100</f>
+        <v>0.19304331279747841</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" ref="AF7" si="18">(AF6/AF5) * 100</f>
+        <v>6.2948461157991159E-2</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" ref="AG7" si="19">(AG6/AG5) * 100</f>
+        <v>4.1171773438130792</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ref="AH7:AI7" si="20">(AH6/AH5) * 100</f>
+        <v>5.0660180086253508</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="20"/>
+        <v>5.0703551164267937</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" ref="AJ7" si="21">(AJ6/AJ5) * 100</f>
+        <v>5.0406884412346127</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" ref="AK7" si="22">(AK6/AK5) * 100</f>
+        <v>4.9968552394806203</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" ref="AL7" si="23">(AL6/AL5) * 100</f>
+        <v>5.0516608050773559</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" ref="AM7" si="24">(AM6/AM5) * 100</f>
+        <v>4.9919877451607615</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" ref="AN7:AO7" si="25">(AN6/AN5) * 100</f>
+        <v>4.9003008504155332</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="25"/>
+        <v>4.8202026837977678</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" ref="AP7" si="26">(AP6/AP5) * 100</f>
+        <v>5.3686594934026051</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" ref="AQ7" si="27">(AQ6/AQ5) * 100</f>
+        <v>4.8512319519520242</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" ref="AR7" si="28">(AR6/AR5) * 100</f>
+        <v>4.7679719320624336</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" ref="AS7" si="29">(AS6/AS5) * 100</f>
+        <v>4.7710465149027455</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ref="AT7:AU7" si="30">(AT6/AT5) * 100</f>
+        <v>4.7017844546911363</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="30"/>
+        <v>4.6276757166193843</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" ref="AV7" si="31">(AV6/AV5) * 100</f>
+        <v>4.7374900735224941</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" ref="AW7" si="32">(AW6/AW5) * 100</f>
+        <v>4.4581795110163718</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" ref="AX7" si="33">(AX6/AX5) * 100</f>
+        <v>4.4725137598913411</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" ref="AY7" si="34">(AY6/AY5) * 100</f>
+        <v>4.8161297769507696</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" ref="AZ7:BA7" si="35">(AZ6/AZ5) * 100</f>
+        <v>4.670418563286721</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="35"/>
+        <v>4.9022874760911508</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" ref="BB7" si="36">(BB6/BB5) * 100</f>
+        <v>5.6687166421769124</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" ref="BC7" si="37">(BC6/BC5) * 100</f>
+        <v>4.9471813442342816</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" ref="BD7" si="38">(BD6/BD5) * 100</f>
+        <v>5.1523181784906313</v>
+      </c>
+      <c r="BE7">
+        <f t="shared" ref="BE7" si="39">(BE6/BE5) * 100</f>
+        <v>4.950684614246156</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" ref="BF7:BG7" si="40">(BF6/BF5) * 100</f>
+        <v>4.8155331655854221</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" si="40"/>
+        <v>4.6913100543782669</v>
+      </c>
+      <c r="BH7">
+        <f t="shared" ref="BH7" si="41">(BH6/BH5) * 100</f>
+        <v>4.6345206273488939</v>
+      </c>
+      <c r="BI7">
+        <f t="shared" ref="BI7" si="42">(BI6/BI5) * 100</f>
+        <v>4.4351890216326133</v>
+      </c>
+      <c r="BJ7">
+        <f t="shared" ref="BJ7" si="43">(BJ6/BJ5) * 100</f>
+        <v>4.3620363727204365</v>
+      </c>
+      <c r="BK7">
+        <f t="shared" ref="BK7" si="44">(BK6/BK5) * 100</f>
+        <v>4.3792384724811599</v>
+      </c>
+      <c r="BL7">
+        <f t="shared" ref="BL7:BM7" si="45">(BL6/BL5) * 100</f>
+        <v>4.1524948255874143</v>
+      </c>
+      <c r="BM7">
+        <f t="shared" si="45"/>
+        <v>4.2193872793391289</v>
+      </c>
+      <c r="BN7">
+        <f t="shared" ref="BN7" si="46">(BN6/BN5) * 100</f>
+        <v>3.7789353411914473</v>
+      </c>
+      <c r="BO7">
+        <f t="shared" ref="BO7" si="47">(BO6/BO5) * 100</f>
+        <v>3.6482323240267207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="5">
+        <v>59313</v>
+      </c>
+      <c r="F10" s="5">
+        <v>61063</v>
+      </c>
+      <c r="G10" s="5">
+        <v>61679</v>
+      </c>
+      <c r="H10" s="5">
+        <v>60313</v>
+      </c>
+      <c r="I10" s="5">
+        <v>56859</v>
+      </c>
+      <c r="J10" s="5">
+        <v>57108</v>
+      </c>
+      <c r="K10" s="5">
+        <v>54282</v>
+      </c>
+      <c r="L10" s="5">
+        <v>53130</v>
+      </c>
+      <c r="M10" s="5">
+        <v>54420</v>
+      </c>
+      <c r="N10" s="5">
+        <v>55707</v>
+      </c>
+      <c r="O10" s="5">
+        <v>56647</v>
+      </c>
+      <c r="P10" s="5">
+        <v>57330</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>59104</v>
+      </c>
+      <c r="R10" s="5">
+        <v>60903</v>
+      </c>
+      <c r="S10" s="5">
+        <v>58004</v>
+      </c>
+      <c r="T10" s="5">
+        <v>59583</v>
+      </c>
+      <c r="U10" s="5">
+        <v>59836</v>
+      </c>
+      <c r="V10" s="5">
+        <v>62050</v>
+      </c>
+      <c r="W10" s="5">
+        <v>63132</v>
+      </c>
+      <c r="X10" s="5">
+        <v>62370</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>60596</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>60502</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>60122</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>58838</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>59162</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>59614</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>62147</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>62041</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>62741</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>63705</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>62529</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>62385</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>60062</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>56098</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>53561</v>
+      </c>
+      <c r="AN10" s="5">
+        <v>47797</v>
+      </c>
+      <c r="AO10" s="5">
+        <v>43268</v>
+      </c>
+      <c r="AP10" s="5">
+        <v>39456</v>
+      </c>
+      <c r="AQ10" s="5">
+        <v>38304</v>
+      </c>
+      <c r="AR10" s="5">
+        <v>36629</v>
+      </c>
+      <c r="AS10" s="5">
+        <v>33894</v>
+      </c>
+      <c r="AT10" s="5">
+        <v>29262</v>
+      </c>
+      <c r="AU10" s="5">
+        <v>28883</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>28831</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>28309</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>26703</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>23620</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>19005</v>
+      </c>
+      <c r="BA10" s="5">
+        <v>17130</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>15786</v>
+      </c>
+      <c r="BC10" s="5">
+        <v>15270</v>
+      </c>
+      <c r="BD10" s="5">
+        <v>15798</v>
+      </c>
+      <c r="BE10" s="5">
+        <v>15660</v>
+      </c>
+      <c r="BF10" s="5">
+        <v>16289</v>
+      </c>
+      <c r="BG10" s="5">
+        <v>15198</v>
+      </c>
+      <c r="BH10" s="5">
+        <v>14864</v>
+      </c>
+      <c r="BI10" s="5">
+        <v>13842</v>
+      </c>
+      <c r="BJ10" s="5">
+        <v>14075</v>
+      </c>
+      <c r="BK10" s="5">
+        <v>14094</v>
+      </c>
+      <c r="BL10" s="5">
+        <v>17710</v>
+      </c>
+      <c r="BM10" s="5">
+        <v>21727</v>
+      </c>
+      <c r="BN10" s="5">
+        <v>25254</v>
+      </c>
+      <c r="BO10" s="5">
+        <v>27974</v>
+      </c>
+      <c r="BP10" s="5">
+        <v>27180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="5">
+        <v>18938</v>
+      </c>
+      <c r="F11" s="5">
+        <v>18014</v>
+      </c>
+      <c r="G11" s="5">
+        <v>19166</v>
+      </c>
+      <c r="H11" s="5">
+        <v>17169</v>
+      </c>
+      <c r="I11" s="5">
+        <v>15235</v>
+      </c>
+      <c r="J11" s="5">
+        <v>14350</v>
+      </c>
+      <c r="K11" s="5">
+        <v>12117</v>
+      </c>
+      <c r="L11" s="5">
+        <v>9716</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10311</v>
+      </c>
+      <c r="N11" s="5">
+        <v>9876</v>
+      </c>
+      <c r="O11" s="5">
+        <v>10194</v>
+      </c>
+      <c r="P11" s="5">
+        <v>10387</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>9848</v>
+      </c>
+      <c r="R11" s="5">
+        <v>9970</v>
+      </c>
+      <c r="S11" s="5">
+        <v>8707</v>
+      </c>
+      <c r="T11" s="5">
+        <v>10361</v>
+      </c>
+      <c r="U11" s="5">
+        <v>9833</v>
+      </c>
+      <c r="V11" s="5">
+        <v>9508</v>
+      </c>
+      <c r="W11" s="5">
+        <v>8832</v>
+      </c>
+      <c r="X11" s="5">
+        <v>8534</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>7651</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>6679</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>6500</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>6319</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>8153</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>7727</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>10529</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>9445</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>10218</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>11608</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>10789</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>10331</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>9666</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>8003</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>8315</v>
+      </c>
+      <c r="AN11" s="5">
+        <v>6202</v>
+      </c>
+      <c r="AO11" s="5">
+        <v>4901</v>
+      </c>
+      <c r="AP11" s="5">
+        <v>4233</v>
+      </c>
+      <c r="AQ11" s="5">
+        <v>4202</v>
+      </c>
+      <c r="AR11" s="5">
+        <v>3783</v>
+      </c>
+      <c r="AS11" s="5">
+        <v>3016</v>
+      </c>
+      <c r="AT11" s="5">
+        <v>2772</v>
+      </c>
+      <c r="AU11" s="5">
+        <v>3145</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>3166</v>
+      </c>
+      <c r="AW11" s="5">
+        <v>3806</v>
+      </c>
+      <c r="AX11" s="5">
+        <v>3607</v>
+      </c>
+      <c r="AY11" s="5">
+        <v>3183</v>
+      </c>
+      <c r="AZ11" s="5">
+        <v>2131</v>
+      </c>
+      <c r="BA11" s="5">
+        <v>1861</v>
+      </c>
+      <c r="BB11" s="5">
+        <v>1597</v>
+      </c>
+      <c r="BC11" s="5">
+        <v>1520</v>
+      </c>
+      <c r="BD11" s="5">
+        <v>1589</v>
+      </c>
+      <c r="BE11" s="5">
+        <v>1303</v>
+      </c>
+      <c r="BF11" s="5">
+        <v>1666</v>
+      </c>
+      <c r="BG11" s="5">
+        <v>1381</v>
+      </c>
+      <c r="BH11" s="5">
+        <v>1183</v>
+      </c>
+      <c r="BI11" s="5">
+        <v>1413</v>
+      </c>
+      <c r="BJ11" s="5">
+        <v>1290</v>
+      </c>
+      <c r="BK11" s="5">
+        <v>1472</v>
+      </c>
+      <c r="BL11" s="5">
+        <v>1509</v>
+      </c>
+      <c r="BM11" s="5">
+        <v>1325</v>
+      </c>
+      <c r="BN11" s="5">
+        <v>2318</v>
+      </c>
+      <c r="BO11" s="5">
+        <v>2921</v>
+      </c>
+      <c r="BP11" s="5">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="5">
+        <v>205</v>
+      </c>
+      <c r="F12" s="5">
+        <v>187</v>
+      </c>
+      <c r="G12" s="5">
+        <v>200</v>
+      </c>
+      <c r="H12" s="5">
+        <v>157</v>
+      </c>
+      <c r="I12" s="5">
+        <v>119</v>
+      </c>
+      <c r="J12" s="5">
+        <v>64</v>
+      </c>
+      <c r="K12" s="5">
+        <v>41</v>
+      </c>
+      <c r="L12" s="5">
+        <v>39</v>
+      </c>
+      <c r="M12" s="5">
+        <v>75</v>
+      </c>
+      <c r="N12" s="5">
+        <v>56</v>
+      </c>
+      <c r="O12" s="5">
+        <v>68</v>
+      </c>
+      <c r="P12" s="5">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>45</v>
+      </c>
+      <c r="R12" s="5">
+        <v>48</v>
+      </c>
+      <c r="S12" s="5">
+        <v>48</v>
+      </c>
+      <c r="T12" s="5">
+        <v>47</v>
+      </c>
+      <c r="U12" s="5">
+        <v>47</v>
+      </c>
+      <c r="V12" s="5">
+        <v>47</v>
+      </c>
+      <c r="W12" s="5">
+        <v>42</v>
+      </c>
+      <c r="X12" s="5">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>770</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>292</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>178</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>123</v>
+      </c>
+      <c r="AI12" s="5">
+        <v>190</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>205</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>207</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>191</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>176</v>
+      </c>
+      <c r="AN12" s="5">
+        <v>151</v>
+      </c>
+      <c r="AO12" s="5">
+        <v>131</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>112</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>91</v>
+      </c>
+      <c r="AR12" s="5">
+        <v>78</v>
+      </c>
+      <c r="AS12" s="5">
+        <v>70</v>
+      </c>
+      <c r="AT12" s="5">
+        <v>61</v>
+      </c>
+      <c r="AU12" s="5">
+        <v>58</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>56</v>
+      </c>
+      <c r="AW12" s="5">
+        <v>54</v>
+      </c>
+      <c r="AX12" s="5">
+        <v>52</v>
+      </c>
+      <c r="AY12" s="5">
+        <v>52</v>
+      </c>
+      <c r="AZ12" s="5">
+        <v>49</v>
+      </c>
+      <c r="BA12" s="5">
+        <v>49</v>
+      </c>
+      <c r="BB12" s="5">
+        <v>88</v>
+      </c>
+      <c r="BC12" s="5">
+        <v>82</v>
+      </c>
+      <c r="BD12" s="5">
+        <v>76</v>
+      </c>
+      <c r="BE12" s="5">
+        <v>71</v>
+      </c>
+      <c r="BF12" s="5">
+        <v>65</v>
+      </c>
+      <c r="BG12" s="5">
+        <v>59</v>
+      </c>
+      <c r="BH12" s="5">
+        <v>55</v>
+      </c>
+      <c r="BI12" s="5">
+        <v>55</v>
+      </c>
+      <c r="BJ12" s="5">
+        <v>55</v>
+      </c>
+      <c r="BK12" s="5">
+        <v>54</v>
+      </c>
+      <c r="BL12" s="5">
+        <v>54</v>
+      </c>
+      <c r="BM12" s="5">
+        <v>47</v>
+      </c>
+      <c r="BN12" s="5">
+        <v>47</v>
+      </c>
+      <c r="BO12" s="5">
+        <v>180</v>
+      </c>
+      <c r="BP12" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1102</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1041</v>
+      </c>
+      <c r="G13" s="5">
+        <v>959</v>
+      </c>
+      <c r="H13" s="5">
+        <v>905</v>
+      </c>
+      <c r="I13" s="5">
+        <v>836</v>
+      </c>
+      <c r="J13" s="5">
+        <v>734</v>
+      </c>
+      <c r="K13" s="5">
+        <v>752</v>
+      </c>
+      <c r="L13" s="5">
+        <v>738</v>
+      </c>
+      <c r="M13" s="5">
+        <v>720</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1473</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1593</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1920</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2291</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2937</v>
+      </c>
+      <c r="S13" s="5">
+        <v>2703</v>
+      </c>
+      <c r="T13" s="5">
+        <v>2427</v>
+      </c>
+      <c r="U13" s="5">
+        <v>2238</v>
+      </c>
+      <c r="V13" s="5">
+        <v>2169</v>
+      </c>
+      <c r="W13" s="5">
+        <v>3266</v>
+      </c>
+      <c r="X13" s="5">
+        <v>3129</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>3111</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>3205</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>3920</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>4153</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>5224</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>5228</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>5296</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>5401</v>
+      </c>
+      <c r="AG13" s="5">
+        <v>5220</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>4982</v>
+      </c>
+      <c r="AI13" s="5">
+        <v>4855</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>4644</v>
+      </c>
+      <c r="AK13" s="5">
+        <v>4562</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>4380</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>2884</v>
+      </c>
+      <c r="AN13" s="5">
+        <v>2115</v>
+      </c>
+      <c r="AO13" s="5">
+        <v>2266</v>
+      </c>
+      <c r="AP13" s="5">
+        <v>2061</v>
+      </c>
+      <c r="AQ13" s="5">
+        <v>1979</v>
+      </c>
+      <c r="AR13" s="5">
+        <v>1993</v>
+      </c>
+      <c r="AS13" s="5">
+        <v>2149</v>
+      </c>
+      <c r="AT13" s="5">
+        <v>1666</v>
+      </c>
+      <c r="AU13" s="5">
+        <v>1544</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>1454</v>
+      </c>
+      <c r="AW13" s="5">
+        <v>1397</v>
+      </c>
+      <c r="AX13" s="5">
+        <v>1262</v>
+      </c>
+      <c r="AY13" s="5">
+        <v>1084</v>
+      </c>
+      <c r="AZ13" s="5">
+        <v>973</v>
+      </c>
+      <c r="BA13" s="5">
+        <v>944</v>
+      </c>
+      <c r="BB13" s="5">
+        <v>966</v>
+      </c>
+      <c r="BC13" s="5">
+        <v>1032</v>
+      </c>
+      <c r="BD13" s="5">
+        <v>1086</v>
+      </c>
+      <c r="BE13" s="5">
+        <v>1076</v>
+      </c>
+      <c r="BF13" s="5">
+        <v>1048</v>
+      </c>
+      <c r="BG13" s="5">
+        <v>982</v>
+      </c>
+      <c r="BH13" s="5">
+        <v>951</v>
+      </c>
+      <c r="BI13" s="5">
+        <v>962</v>
+      </c>
+      <c r="BJ13" s="5">
+        <v>973</v>
+      </c>
+      <c r="BK13" s="5">
+        <v>976</v>
+      </c>
+      <c r="BL13" s="5">
+        <v>949</v>
+      </c>
+      <c r="BM13" s="5">
+        <v>921</v>
+      </c>
+      <c r="BN13" s="5">
+        <v>1028</v>
+      </c>
+      <c r="BO13" s="5">
+        <v>1013</v>
+      </c>
+      <c r="BP13" s="5">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="5">
+        <v>828</v>
+      </c>
+      <c r="F14" s="5">
+        <v>703</v>
+      </c>
+      <c r="G14" s="5">
+        <v>627</v>
+      </c>
+      <c r="H14" s="5">
+        <v>529</v>
+      </c>
+      <c r="I14" s="5">
+        <v>383</v>
+      </c>
+      <c r="J14" s="5">
+        <v>299</v>
+      </c>
+      <c r="K14" s="5">
+        <v>237</v>
+      </c>
+      <c r="L14" s="5">
+        <v>139</v>
+      </c>
+      <c r="M14" s="5">
+        <v>133</v>
+      </c>
+      <c r="N14" s="5">
+        <v>125</v>
+      </c>
+      <c r="O14" s="5">
+        <v>125</v>
+      </c>
+      <c r="P14" s="5">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>143</v>
+      </c>
+      <c r="R14" s="5">
+        <v>135</v>
+      </c>
+      <c r="S14" s="5">
+        <v>153</v>
+      </c>
+      <c r="T14" s="5">
+        <v>230</v>
+      </c>
+      <c r="U14" s="5">
+        <v>194</v>
+      </c>
+      <c r="V14" s="5">
+        <v>506</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1345</v>
+      </c>
+      <c r="X14" s="5">
+        <v>945</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>745</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>575</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>429</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>362</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>291</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>738</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>706</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>1585</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>1814</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>1739</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>1818</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1736</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>1550</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>1362</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>1236</v>
+      </c>
+      <c r="AN14" s="5">
+        <v>1790</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>1414</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>1072</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>1031</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>1068</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>1159</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>940</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>957</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>1624</v>
+      </c>
+      <c r="AW14" s="5">
+        <v>1216</v>
+      </c>
+      <c r="AX14" s="5">
+        <v>1143</v>
+      </c>
+      <c r="AY14" s="5">
+        <v>667</v>
+      </c>
+      <c r="AZ14" s="5">
+        <v>280</v>
+      </c>
+      <c r="BA14" s="5">
+        <v>419</v>
+      </c>
+      <c r="BB14" s="5">
+        <v>195</v>
+      </c>
+      <c r="BC14" s="5">
+        <v>153</v>
+      </c>
+      <c r="BD14" s="5">
+        <v>897</v>
+      </c>
+      <c r="BE14" s="5">
+        <v>1185</v>
+      </c>
+      <c r="BF14" s="5">
+        <v>1017</v>
+      </c>
+      <c r="BG14" s="5">
+        <v>1148</v>
+      </c>
+      <c r="BH14" s="5">
+        <v>2365</v>
+      </c>
+      <c r="BI14" s="5">
+        <v>2093</v>
+      </c>
+      <c r="BJ14" s="5">
+        <v>1933</v>
+      </c>
+      <c r="BK14" s="5">
+        <v>2177</v>
+      </c>
+      <c r="BL14" s="5">
+        <v>1977</v>
+      </c>
+      <c r="BM14" s="5">
+        <v>3678</v>
+      </c>
+      <c r="BN14" s="5">
+        <v>4561</v>
+      </c>
+      <c r="BO14" s="5">
+        <v>6572</v>
+      </c>
+      <c r="BP14" s="5">
+        <v>6827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3641</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3335</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4501</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3703</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3158</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3057</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2516</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2081</v>
+      </c>
+      <c r="M15" s="5">
+        <v>2291</v>
+      </c>
+      <c r="N15" s="5">
+        <v>1908</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1751</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1549</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>1192</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1246</v>
+      </c>
+      <c r="S15" s="5">
+        <v>1237</v>
+      </c>
+      <c r="T15" s="5">
+        <v>1311</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1186</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1327</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1260</v>
+      </c>
+      <c r="X15" s="5">
+        <v>1208</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1135</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>1122</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>1394</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>1324</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>1357</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>1799</v>
+      </c>
+      <c r="AE15" s="5">
+        <v>2454</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>2105</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>3478</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>3632</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>2778</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1557</v>
+      </c>
+      <c r="AK15" s="5">
+        <v>1046</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>836</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>839</v>
+      </c>
+      <c r="AN15" s="5">
+        <v>966</v>
+      </c>
+      <c r="AO15" s="5">
+        <v>1035</v>
+      </c>
+      <c r="AP15" s="5">
+        <v>487</v>
+      </c>
+      <c r="AQ15" s="5">
+        <v>449</v>
+      </c>
+      <c r="AR15" s="5">
+        <v>481</v>
+      </c>
+      <c r="AS15" s="5">
+        <v>342</v>
+      </c>
+      <c r="AT15" s="5">
+        <v>266</v>
+      </c>
+      <c r="AU15" s="5">
+        <v>294</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>525</v>
+      </c>
+      <c r="AW15" s="5">
+        <v>414</v>
+      </c>
+      <c r="AX15" s="5">
+        <v>822</v>
+      </c>
+      <c r="AY15" s="5">
+        <v>691</v>
+      </c>
+      <c r="AZ15" s="5">
+        <v>466</v>
+      </c>
+      <c r="BA15" s="5">
+        <v>245</v>
+      </c>
+      <c r="BB15" s="5">
+        <v>142</v>
+      </c>
+      <c r="BC15" s="5">
+        <v>130</v>
+      </c>
+      <c r="BD15" s="5">
+        <v>123</v>
+      </c>
+      <c r="BE15" s="5">
+        <v>125</v>
+      </c>
+      <c r="BF15" s="5">
+        <v>334</v>
+      </c>
+      <c r="BG15" s="5">
+        <v>341</v>
+      </c>
+      <c r="BH15" s="5">
+        <v>339</v>
+      </c>
+      <c r="BI15" s="5">
+        <v>440</v>
+      </c>
+      <c r="BJ15" s="5">
+        <v>428</v>
+      </c>
+      <c r="BK15" s="5">
+        <v>423</v>
+      </c>
+      <c r="BL15" s="5">
+        <v>425</v>
+      </c>
+      <c r="BM15" s="5">
+        <v>423</v>
+      </c>
+      <c r="BN15" s="5">
+        <v>409</v>
+      </c>
+      <c r="BO15" s="5">
+        <v>532</v>
+      </c>
+      <c r="BP15" s="5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" ht="12.95" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="5">
+        <v>818</v>
+      </c>
+      <c r="F16" s="5">
+        <v>764</v>
+      </c>
+      <c r="G16" s="5">
+        <v>696</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1392</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1326</v>
+      </c>
+      <c r="J16" s="5">
+        <v>804</v>
+      </c>
+      <c r="K16" s="5">
+        <v>797</v>
+      </c>
+      <c r="L16" s="5">
+        <v>766</v>
+      </c>
+      <c r="M16" s="5">
+        <v>769</v>
+      </c>
+      <c r="N16" s="5">
+        <v>781</v>
+      </c>
+      <c r="O16" s="5">
+        <v>796</v>
+      </c>
+      <c r="P16" s="5">
+        <v>707</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>562</v>
+      </c>
+      <c r="R16" s="5">
+        <v>431</v>
+      </c>
+      <c r="S16" s="5">
+        <v>383</v>
+      </c>
+      <c r="T16" s="5">
+        <v>366</v>
+      </c>
+      <c r="U16" s="5">
+        <v>338</v>
+      </c>
+      <c r="V16" s="5">
+        <v>317</v>
+      </c>
+      <c r="W16" s="5">
+        <v>266</v>
+      </c>
+      <c r="X16" s="5">
+        <v>240</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>194</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>191</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>75</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>58</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>52</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>49</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>45</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>40</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>40</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>39</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>39</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>181</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>139</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>95</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>180</v>
+      </c>
+      <c r="AN16" s="5">
+        <v>148</v>
+      </c>
+      <c r="AO16" s="5">
+        <v>59</v>
+      </c>
+      <c r="AP16" s="5">
+        <v>36</v>
+      </c>
+      <c r="AQ16" s="5">
+        <v>32</v>
+      </c>
+      <c r="AR16" s="5">
+        <v>31</v>
+      </c>
+      <c r="AS16" s="5">
+        <v>31</v>
+      </c>
+      <c r="AT16" s="5">
+        <v>31</v>
+      </c>
+      <c r="AU16" s="5">
+        <v>31</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>31</v>
+      </c>
+      <c r="AW16" s="5">
+        <v>259</v>
+      </c>
+      <c r="AX16" s="5">
+        <v>245</v>
+      </c>
+      <c r="AY16" s="5">
+        <v>88</v>
+      </c>
+      <c r="AZ16" s="5">
+        <v>31</v>
+      </c>
+      <c r="BA16" s="5">
+        <v>307</v>
+      </c>
+      <c r="BB16" s="5">
+        <v>44</v>
+      </c>
+      <c r="BC16" s="5">
+        <v>44</v>
+      </c>
+      <c r="BD16" s="5">
+        <v>75</v>
+      </c>
+      <c r="BE16" s="5">
+        <v>73</v>
+      </c>
+      <c r="BF16" s="5">
+        <v>66</v>
+      </c>
+      <c r="BG16" s="5">
+        <v>54</v>
+      </c>
+      <c r="BH16" s="5">
+        <v>39</v>
+      </c>
+      <c r="BI16" s="5">
+        <v>36</v>
+      </c>
+      <c r="BJ16" s="5">
+        <v>33</v>
+      </c>
+      <c r="BK16" s="5">
+        <v>29</v>
+      </c>
+      <c r="BL16" s="5">
+        <v>27</v>
+      </c>
+      <c r="BM16" s="5">
+        <v>6</v>
+      </c>
+      <c r="BN16" s="5">
+        <v>5</v>
+      </c>
+      <c r="BO16" s="5">
+        <v>2</v>
+      </c>
+      <c r="BP16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5">
+        <v>551</v>
+      </c>
+      <c r="F17" s="5">
+        <v>726</v>
+      </c>
+      <c r="G17" s="5">
+        <v>998</v>
+      </c>
+      <c r="H17" s="5">
+        <v>935</v>
+      </c>
+      <c r="I17" s="5">
+        <v>888</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1073</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1083</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1093</v>
+      </c>
+      <c r="M17" s="5">
+        <v>945</v>
+      </c>
+      <c r="N17" s="5">
+        <v>854</v>
+      </c>
+      <c r="O17" s="5">
+        <v>1062</v>
+      </c>
+      <c r="P17" s="5">
+        <v>759</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1084</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1210</v>
+      </c>
+      <c r="S17" s="5">
+        <v>740</v>
+      </c>
+      <c r="T17" s="5">
+        <v>843</v>
+      </c>
+      <c r="U17" s="5">
+        <v>888</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1035</v>
+      </c>
+      <c r="W17" s="5">
+        <v>973</v>
+      </c>
+      <c r="X17" s="5">
+        <v>978</v>
+      </c>
+      <c r="Y17" s="5">
+        <v>948</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>990</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1426</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1183</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1407</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>1475</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>1475</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>1225</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>1137</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>1158</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>1048</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>1018</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>964</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>935</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>879</v>
+      </c>
+      <c r="AN17" s="5">
+        <v>724</v>
+      </c>
+      <c r="AO17" s="5">
+        <v>941</v>
+      </c>
+      <c r="AP17" s="5">
+        <v>1012</v>
+      </c>
+      <c r="AQ17" s="5">
+        <v>968</v>
+      </c>
+      <c r="AR17" s="5">
+        <v>917</v>
+      </c>
+      <c r="AS17" s="5">
+        <v>871</v>
+      </c>
+      <c r="AT17" s="5">
+        <v>875</v>
+      </c>
+      <c r="AU17" s="5">
+        <v>849</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>783</v>
+      </c>
+      <c r="AW17" s="5">
+        <v>773</v>
+      </c>
+      <c r="AX17" s="5">
+        <v>832</v>
+      </c>
+      <c r="AY17" s="5">
+        <v>831</v>
+      </c>
+      <c r="AZ17" s="5">
+        <v>638</v>
+      </c>
+      <c r="BA17" s="5">
+        <v>635</v>
+      </c>
+      <c r="BB17" s="5">
+        <v>599</v>
+      </c>
+      <c r="BC17" s="5">
+        <v>592</v>
+      </c>
+      <c r="BD17" s="5">
+        <v>578</v>
+      </c>
+      <c r="BE17" s="5">
+        <v>572</v>
+      </c>
+      <c r="BF17" s="5">
+        <v>565</v>
+      </c>
+      <c r="BG17" s="5">
+        <v>527</v>
+      </c>
+      <c r="BH17" s="5">
+        <v>503</v>
+      </c>
+      <c r="BI17" s="5">
+        <v>471</v>
+      </c>
+      <c r="BJ17" s="5">
+        <v>469</v>
+      </c>
+      <c r="BK17" s="5">
+        <v>602</v>
+      </c>
+      <c r="BL17" s="5">
+        <v>460</v>
+      </c>
+      <c r="BM17" s="5">
+        <v>423</v>
+      </c>
+      <c r="BN17" s="5">
+        <v>477</v>
+      </c>
+      <c r="BO17" s="5">
+        <v>469</v>
+      </c>
+      <c r="BP17" s="5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5">
+        <v>682</v>
+      </c>
+      <c r="F18" s="5">
+        <v>811</v>
+      </c>
+      <c r="G18" s="5">
+        <v>789</v>
+      </c>
+      <c r="H18" s="5">
+        <v>736</v>
+      </c>
+      <c r="I18" s="5">
+        <v>713</v>
+      </c>
+      <c r="J18" s="5">
+        <v>873</v>
+      </c>
+      <c r="K18" s="5">
+        <v>869</v>
+      </c>
+      <c r="L18" s="5">
+        <v>898</v>
+      </c>
+      <c r="M18" s="5">
+        <v>872</v>
+      </c>
+      <c r="N18" s="5">
+        <v>866</v>
+      </c>
+      <c r="O18" s="5">
+        <v>849</v>
+      </c>
+      <c r="P18" s="5">
+        <v>855</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1089</v>
+      </c>
+      <c r="R18" s="5">
+        <v>837</v>
+      </c>
+      <c r="S18" s="5">
+        <v>830</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1008</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1004</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1004</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1006</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1005</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1007</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1010</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1009</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>997</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1006</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>1009</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>1008</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>1076</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>1085</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>1201</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>1359</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>1339</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>1345</v>
+      </c>
+      <c r="AL18" s="5">
+        <v>1012</v>
+      </c>
+      <c r="AM18" s="5">
+        <v>1365</v>
+      </c>
+      <c r="AN18" s="5">
+        <v>1269</v>
+      </c>
+      <c r="AO18" s="5">
+        <v>1142</v>
+      </c>
+      <c r="AP18" s="5">
+        <v>659</v>
+      </c>
+      <c r="AQ18" s="5">
+        <v>695</v>
+      </c>
+      <c r="AR18" s="5">
+        <v>699</v>
+      </c>
+      <c r="AS18" s="5">
+        <v>614</v>
+      </c>
+      <c r="AT18" s="5">
+        <v>555</v>
+      </c>
+      <c r="AU18" s="5">
+        <v>548</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>502</v>
+      </c>
+      <c r="AW18" s="5">
+        <v>494</v>
+      </c>
+      <c r="AX18" s="5">
+        <v>474</v>
+      </c>
+      <c r="AY18" s="5">
+        <v>473</v>
+      </c>
+      <c r="AZ18" s="5">
+        <v>468</v>
+      </c>
+      <c r="BA18" s="5">
+        <v>438</v>
+      </c>
+      <c r="BB18" s="5">
+        <v>436</v>
+      </c>
+      <c r="BC18" s="5">
+        <v>419</v>
+      </c>
+      <c r="BD18" s="5">
+        <v>419</v>
+      </c>
+      <c r="BE18" s="5">
+        <v>508</v>
+      </c>
+      <c r="BF18" s="5">
+        <v>407</v>
+      </c>
+      <c r="BG18" s="5">
+        <v>405</v>
+      </c>
+      <c r="BH18" s="5">
+        <v>403</v>
+      </c>
+      <c r="BI18" s="5">
+        <v>467</v>
+      </c>
+      <c r="BJ18" s="5">
+        <v>401</v>
+      </c>
+      <c r="BK18" s="5">
+        <v>399</v>
+      </c>
+      <c r="BL18" s="5">
+        <v>397</v>
+      </c>
+      <c r="BM18" s="5">
+        <v>395</v>
+      </c>
+      <c r="BN18" s="5">
+        <v>395</v>
+      </c>
+      <c r="BO18" s="5">
+        <v>395</v>
+      </c>
+      <c r="BP18" s="5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
+        <v>0</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="5">
+        <v>129</v>
+      </c>
+      <c r="BK19" s="5">
+        <v>103</v>
+      </c>
+      <c r="BL19" s="5">
+        <v>30</v>
+      </c>
+      <c r="BM19" s="5">
+        <v>21</v>
+      </c>
+      <c r="BN19" s="5">
+        <v>15</v>
+      </c>
+      <c r="BO19" s="5">
+        <v>13</v>
+      </c>
+      <c r="BP19" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5">
+        <v>15092</v>
+      </c>
+      <c r="F20" s="5">
+        <v>14492</v>
+      </c>
+      <c r="G20" s="5">
+        <v>14465</v>
+      </c>
+      <c r="H20" s="5">
+        <v>13309</v>
+      </c>
+      <c r="I20" s="5">
+        <v>11958</v>
+      </c>
+      <c r="J20" s="5">
+        <v>11229</v>
+      </c>
+      <c r="K20" s="5">
+        <v>9560</v>
+      </c>
+      <c r="L20" s="5">
+        <v>7596</v>
+      </c>
+      <c r="M20" s="5">
+        <v>7945</v>
+      </c>
+      <c r="N20" s="5">
+        <v>7912</v>
+      </c>
+      <c r="O20" s="5">
+        <v>8375</v>
+      </c>
+      <c r="P20" s="5">
+        <v>8793</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>8611</v>
+      </c>
+      <c r="R20" s="5">
+        <v>8676</v>
+      </c>
+      <c r="S20" s="5">
+        <v>7422</v>
+      </c>
+      <c r="T20" s="5">
+        <v>9003</v>
+      </c>
+      <c r="U20" s="5">
+        <v>8600</v>
+      </c>
+      <c r="V20" s="5">
+        <v>8134</v>
+      </c>
+      <c r="W20" s="5">
+        <v>7530</v>
+      </c>
+      <c r="X20" s="5">
+        <v>7287</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>6487</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>5529</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>5078</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>4968</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>6769</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>5878</v>
+      </c>
+      <c r="AE20" s="5">
+        <v>7305</v>
+      </c>
+      <c r="AF20" s="5">
+        <v>7048</v>
+      </c>
+      <c r="AG20" s="5">
+        <v>6562</v>
+      </c>
+      <c r="AH20" s="5">
+        <v>7853</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>7821</v>
+      </c>
+      <c r="AJ20" s="5">
+        <v>8569</v>
+      </c>
+      <c r="AK20" s="5">
+        <v>8413</v>
+      </c>
+      <c r="AL20" s="5">
+        <v>6976</v>
+      </c>
+      <c r="AM20" s="5">
+        <v>7300</v>
+      </c>
+      <c r="AN20" s="5">
+        <v>5085</v>
+      </c>
+      <c r="AO20" s="5">
+        <v>3735</v>
+      </c>
+      <c r="AP20" s="5">
+        <v>3634</v>
+      </c>
+      <c r="AQ20" s="5">
+        <v>3662</v>
+      </c>
+      <c r="AR20" s="5">
+        <v>3224</v>
+      </c>
+      <c r="AS20" s="5">
+        <v>2604</v>
+      </c>
+      <c r="AT20" s="5">
+        <v>2445</v>
+      </c>
+      <c r="AU20" s="5">
+        <v>2793</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>2585</v>
+      </c>
+      <c r="AW20" s="5">
+        <v>3338</v>
+      </c>
+      <c r="AX20" s="5">
+        <v>2733</v>
+      </c>
+      <c r="AY20" s="5">
+        <v>2440</v>
+      </c>
+      <c r="AZ20" s="5">
+        <v>1616</v>
+      </c>
+      <c r="BA20" s="5">
+        <v>1567</v>
+      </c>
+      <c r="BB20" s="5">
+        <v>1367</v>
+      </c>
+      <c r="BC20" s="5">
+        <v>1308</v>
+      </c>
+      <c r="BD20" s="5">
+        <v>1390</v>
+      </c>
+      <c r="BE20" s="5">
+        <v>1107</v>
+      </c>
+      <c r="BF20" s="5">
+        <v>1267</v>
+      </c>
+      <c r="BG20" s="5">
+        <v>981</v>
+      </c>
+      <c r="BH20" s="5">
+        <v>789</v>
+      </c>
+      <c r="BI20" s="5">
+        <v>918</v>
+      </c>
+      <c r="BJ20" s="5">
+        <v>807</v>
+      </c>
+      <c r="BK20" s="5">
+        <v>995</v>
+      </c>
+      <c r="BL20" s="5">
+        <v>1030</v>
+      </c>
+      <c r="BM20" s="5">
+        <v>855</v>
+      </c>
+      <c r="BN20" s="5">
+        <v>1862</v>
+      </c>
+      <c r="BO20" s="5">
+        <v>2209</v>
+      </c>
+      <c r="BP20" s="5">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3466</v>
+      </c>
+      <c r="F21" s="5">
+        <v>3281</v>
+      </c>
+      <c r="G21" s="5">
+        <v>3064</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3297</v>
+      </c>
+      <c r="I21" s="5">
+        <v>3013</v>
+      </c>
+      <c r="J21" s="5">
+        <v>3019</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2655</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2316</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3094</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2701</v>
+      </c>
+      <c r="O21" s="5">
+        <v>2474</v>
+      </c>
+      <c r="P21" s="5">
+        <v>2816</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>2693</v>
+      </c>
+      <c r="R21" s="5">
+        <v>4636</v>
+      </c>
+      <c r="S21" s="5">
+        <v>5215</v>
+      </c>
+      <c r="T21" s="5">
+        <v>5038</v>
+      </c>
+      <c r="U21" s="5">
+        <v>4883</v>
+      </c>
+      <c r="V21" s="5">
+        <v>4729</v>
+      </c>
+      <c r="W21" s="5">
+        <v>4906</v>
+      </c>
+      <c r="X21" s="5">
+        <v>5240</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>5112</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>5350</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>5300</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>5736</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>5589</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>5802</v>
+      </c>
+      <c r="AE21" s="5">
+        <v>5748</v>
+      </c>
+      <c r="AF21" s="5">
+        <v>7882</v>
+      </c>
+      <c r="AG21" s="5">
+        <v>7776</v>
+      </c>
+      <c r="AH21" s="5">
+        <v>7712</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>7474</v>
+      </c>
+      <c r="AJ21" s="5">
+        <v>8097</v>
+      </c>
+      <c r="AK21" s="5">
+        <v>7797</v>
+      </c>
+      <c r="AL21" s="5">
+        <v>7382</v>
+      </c>
+      <c r="AM21" s="5">
+        <v>7120</v>
+      </c>
+      <c r="AN21" s="5">
+        <v>5945</v>
+      </c>
+      <c r="AO21" s="5">
+        <v>4964</v>
+      </c>
+      <c r="AP21" s="5">
+        <v>4168</v>
+      </c>
+      <c r="AQ21" s="5">
+        <v>3902</v>
+      </c>
+      <c r="AR21" s="5">
+        <v>3742</v>
+      </c>
+      <c r="AS21" s="5">
+        <v>3470</v>
+      </c>
+      <c r="AT21" s="5">
+        <v>3202</v>
+      </c>
+      <c r="AU21" s="5">
+        <v>3015</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>2816</v>
+      </c>
+      <c r="AW21" s="5">
+        <v>3060</v>
+      </c>
+      <c r="AX21" s="5">
+        <v>2884</v>
+      </c>
+      <c r="AY21" s="5">
+        <v>2648</v>
+      </c>
+      <c r="AZ21" s="5">
+        <v>3115</v>
+      </c>
+      <c r="BA21" s="5">
+        <v>2671</v>
+      </c>
+      <c r="BB21" s="5">
+        <v>2340</v>
+      </c>
+      <c r="BC21" s="5">
+        <v>2063</v>
+      </c>
+      <c r="BD21" s="5">
+        <v>1817</v>
+      </c>
+      <c r="BE21" s="5">
+        <v>1605</v>
+      </c>
+      <c r="BF21" s="5">
+        <v>1517</v>
+      </c>
+      <c r="BG21" s="5">
+        <v>1496</v>
+      </c>
+      <c r="BH21" s="5">
+        <v>1296</v>
+      </c>
+      <c r="BI21" s="5">
+        <v>1301</v>
+      </c>
+      <c r="BJ21" s="5">
+        <v>1172</v>
+      </c>
+      <c r="BK21" s="5">
+        <v>1076</v>
+      </c>
+      <c r="BL21" s="5">
+        <v>1648</v>
+      </c>
+      <c r="BM21" s="5">
+        <v>1566</v>
+      </c>
+      <c r="BN21" s="5">
+        <v>1498</v>
+      </c>
+      <c r="BO21" s="5">
+        <v>1363</v>
+      </c>
+      <c r="BP21" s="5">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4043</v>
+      </c>
+      <c r="F22" s="5">
+        <v>3982</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4415</v>
+      </c>
+      <c r="H22" s="5">
+        <v>5755</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5433</v>
+      </c>
+      <c r="J22" s="5">
+        <v>7108</v>
+      </c>
+      <c r="K22" s="5">
+        <v>6853</v>
+      </c>
+      <c r="L22" s="5">
+        <v>5435</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4927</v>
+      </c>
+      <c r="N22" s="5">
+        <v>4652</v>
+      </c>
+      <c r="O22" s="5">
+        <v>5285</v>
+      </c>
+      <c r="P22" s="5">
+        <v>4980</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>4634</v>
+      </c>
+      <c r="R22" s="5">
+        <v>4526</v>
+      </c>
+      <c r="S22" s="5">
+        <v>4167</v>
+      </c>
+      <c r="T22" s="5">
+        <v>4398</v>
+      </c>
+      <c r="U22" s="5">
+        <v>4537</v>
+      </c>
+      <c r="V22" s="5">
+        <v>5288</v>
+      </c>
+      <c r="W22" s="5">
+        <v>4870</v>
+      </c>
+      <c r="X22" s="5">
+        <v>4880</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>4426</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>4944</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>4707</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>4560</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>3525</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>3375</v>
+      </c>
+      <c r="AE22" s="5">
+        <v>3536</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>3514</v>
+      </c>
+      <c r="AG22" s="5">
+        <v>3412</v>
+      </c>
+      <c r="AH22" s="5">
+        <v>3095</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>3236</v>
+      </c>
+      <c r="AJ22" s="5">
+        <v>2895</v>
+      </c>
+      <c r="AK22" s="5">
+        <v>2554</v>
+      </c>
+      <c r="AL22" s="5">
+        <v>2576</v>
+      </c>
+      <c r="AM22" s="5">
+        <v>2216</v>
+      </c>
+      <c r="AN22" s="5">
+        <v>1672</v>
+      </c>
+      <c r="AO22" s="5">
+        <v>1166</v>
+      </c>
+      <c r="AP22" s="5">
+        <v>1202</v>
+      </c>
+      <c r="AQ22" s="5">
+        <v>1109</v>
+      </c>
+      <c r="AR22" s="5">
+        <v>919</v>
+      </c>
+      <c r="AS22" s="5">
+        <v>365</v>
+      </c>
+      <c r="AT22" s="5">
+        <v>355</v>
+      </c>
+      <c r="AU22" s="5">
+        <v>352</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>337</v>
+      </c>
+      <c r="AW22" s="5">
+        <v>319</v>
+      </c>
+      <c r="AX22" s="5">
+        <v>307</v>
+      </c>
+      <c r="AY22" s="5">
+        <v>275</v>
+      </c>
+      <c r="AZ22" s="5">
+        <v>273</v>
+      </c>
+      <c r="BA22" s="5">
+        <v>234</v>
+      </c>
+      <c r="BB22" s="5">
+        <v>211</v>
+      </c>
+      <c r="BC22" s="5">
+        <v>760</v>
+      </c>
+      <c r="BD22" s="5">
+        <v>680</v>
+      </c>
+      <c r="BE22" s="5">
+        <v>751</v>
+      </c>
+      <c r="BF22" s="5">
+        <v>541</v>
+      </c>
+      <c r="BG22" s="5">
+        <v>553</v>
+      </c>
+      <c r="BH22" s="5">
+        <v>340</v>
+      </c>
+      <c r="BI22" s="5">
+        <v>324</v>
+      </c>
+      <c r="BJ22" s="5">
+        <v>307</v>
+      </c>
+      <c r="BK22" s="5">
+        <v>288</v>
+      </c>
+      <c r="BL22" s="5">
+        <v>304</v>
+      </c>
+      <c r="BM22" s="5">
+        <v>292</v>
+      </c>
+      <c r="BN22" s="5">
+        <v>879</v>
+      </c>
+      <c r="BO22" s="5">
+        <v>1056</v>
+      </c>
+      <c r="BP22" s="5">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="5">
+        <v>9094</v>
+      </c>
+      <c r="F23" s="5">
+        <v>8970</v>
+      </c>
+      <c r="G23" s="5">
+        <v>8785</v>
+      </c>
+      <c r="H23" s="5">
+        <v>8715</v>
+      </c>
+      <c r="I23" s="5">
+        <v>8312</v>
+      </c>
+      <c r="J23" s="5">
+        <v>8020</v>
+      </c>
+      <c r="K23" s="5">
+        <v>7645</v>
+      </c>
+      <c r="L23" s="5">
+        <v>9765</v>
+      </c>
+      <c r="M23" s="5">
+        <v>9470</v>
+      </c>
+      <c r="N23" s="5">
+        <v>11309</v>
+      </c>
+      <c r="O23" s="5">
+        <v>10624</v>
+      </c>
+      <c r="P23" s="5">
+        <v>11283</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>11352</v>
+      </c>
+      <c r="R23" s="5">
+        <v>11002</v>
+      </c>
+      <c r="S23" s="5">
+        <v>9738</v>
+      </c>
+      <c r="T23" s="5">
+        <v>9435</v>
+      </c>
+      <c r="U23" s="5">
+        <v>9111</v>
+      </c>
+      <c r="V23" s="5">
+        <v>9494</v>
+      </c>
+      <c r="W23" s="5">
+        <v>9963</v>
+      </c>
+      <c r="X23" s="5">
+        <v>9953</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>9489</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>9141</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>8476</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>7763</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>7149</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>6970</v>
+      </c>
+      <c r="AE23" s="5">
+        <v>6743</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>6413</v>
+      </c>
+      <c r="AG23" s="5">
+        <v>6355</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>6038</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>6201</v>
+      </c>
+      <c r="AJ23" s="5">
+        <v>6847</v>
+      </c>
+      <c r="AK23" s="5">
+        <v>6429</v>
+      </c>
+      <c r="AL23" s="5">
+        <v>5906</v>
+      </c>
+      <c r="AM23" s="5">
+        <v>5895</v>
+      </c>
+      <c r="AN23" s="5">
+        <v>5569</v>
+      </c>
+      <c r="AO23" s="5">
+        <v>5470</v>
+      </c>
+      <c r="AP23" s="5">
+        <v>5085</v>
+      </c>
+      <c r="AQ23" s="5">
+        <v>4843</v>
+      </c>
+      <c r="AR23" s="5">
+        <v>4334</v>
+      </c>
+      <c r="AS23" s="5">
+        <v>4695</v>
+      </c>
+      <c r="AT23" s="5">
+        <v>3683</v>
+      </c>
+      <c r="AU23" s="5">
+        <v>3266</v>
+      </c>
+      <c r="AV23" s="5">
+        <v>3233</v>
+      </c>
+      <c r="AW23" s="5">
+        <v>3030</v>
+      </c>
+      <c r="AX23" s="5">
+        <v>3235</v>
+      </c>
+      <c r="AY23" s="5">
+        <v>3582</v>
+      </c>
+      <c r="AZ23" s="5">
+        <v>2510</v>
+      </c>
+      <c r="BA23" s="5">
+        <v>2061</v>
+      </c>
+      <c r="BB23" s="5">
+        <v>1913</v>
+      </c>
+      <c r="BC23" s="5">
+        <v>1758</v>
+      </c>
+      <c r="BD23" s="5">
+        <v>1637</v>
+      </c>
+      <c r="BE23" s="5">
+        <v>1508</v>
+      </c>
+      <c r="BF23" s="5">
+        <v>1856</v>
+      </c>
+      <c r="BG23" s="5">
+        <v>1738</v>
+      </c>
+      <c r="BH23" s="5">
+        <v>1320</v>
+      </c>
+      <c r="BI23" s="5">
+        <v>1205</v>
+      </c>
+      <c r="BJ23" s="5">
+        <v>1098</v>
+      </c>
+      <c r="BK23" s="5">
+        <v>1057</v>
+      </c>
+      <c r="BL23" s="5">
+        <v>1012</v>
+      </c>
+      <c r="BM23" s="5">
+        <v>1383</v>
+      </c>
+      <c r="BN23" s="5">
+        <v>1587</v>
+      </c>
+      <c r="BO23" s="5">
+        <v>1532</v>
+      </c>
+      <c r="BP23" s="5">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2468</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2278</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2087</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2130</v>
+      </c>
+      <c r="I24" s="5">
+        <v>1956</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2242</v>
+      </c>
+      <c r="K24" s="5">
+        <v>2082</v>
+      </c>
+      <c r="L24" s="5">
+        <v>2037</v>
+      </c>
+      <c r="M24" s="5">
+        <v>2154</v>
+      </c>
+      <c r="N24" s="5">
+        <v>1964</v>
+      </c>
+      <c r="O24" s="5">
+        <v>1895</v>
+      </c>
+      <c r="P24" s="5">
+        <v>1881</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>1846</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1667</v>
+      </c>
+      <c r="S24" s="5">
+        <v>1651</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1519</v>
+      </c>
+      <c r="U24" s="5">
+        <v>1891</v>
+      </c>
+      <c r="V24" s="5">
+        <v>2174</v>
+      </c>
+      <c r="W24" s="5">
+        <v>2034</v>
+      </c>
+      <c r="X24" s="5">
+        <v>1810</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>1681</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>1834</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>1692</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>1607</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>1567</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>1415</v>
+      </c>
+      <c r="AE24" s="5">
+        <v>1374</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>1205</v>
+      </c>
+      <c r="AG24" s="5">
+        <v>1513</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>1386</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>1451</v>
+      </c>
+      <c r="AJ24" s="5">
+        <v>1318</v>
+      </c>
+      <c r="AK24" s="5">
+        <v>1198</v>
+      </c>
+      <c r="AL24" s="5">
+        <v>1077</v>
+      </c>
+      <c r="AM24" s="5">
+        <v>987</v>
+      </c>
+      <c r="AN24" s="5">
+        <v>1043</v>
+      </c>
+      <c r="AO24" s="5">
+        <v>1009</v>
+      </c>
+      <c r="AP24" s="5">
+        <v>924</v>
+      </c>
+      <c r="AQ24" s="5">
+        <v>849</v>
+      </c>
+      <c r="AR24" s="5">
+        <v>822</v>
+      </c>
+      <c r="AS24" s="5">
+        <v>661</v>
+      </c>
+      <c r="AT24" s="5">
+        <v>631</v>
+      </c>
+      <c r="AU24" s="5">
+        <v>534</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>511</v>
+      </c>
+      <c r="AW24" s="5">
+        <v>488</v>
+      </c>
+      <c r="AX24" s="5">
+        <v>444</v>
+      </c>
+      <c r="AY24" s="5">
+        <v>400</v>
+      </c>
+      <c r="AZ24" s="5">
+        <v>661</v>
+      </c>
+      <c r="BA24" s="5">
+        <v>251</v>
+      </c>
+      <c r="BB24" s="5">
+        <v>227</v>
+      </c>
+      <c r="BC24" s="5">
+        <v>170</v>
+      </c>
+      <c r="BD24" s="5">
+        <v>125</v>
+      </c>
+      <c r="BE24" s="5">
+        <v>275</v>
+      </c>
+      <c r="BF24" s="5">
+        <v>258</v>
+      </c>
+      <c r="BG24" s="5">
+        <v>227</v>
+      </c>
+      <c r="BH24" s="5">
+        <v>311</v>
+      </c>
+      <c r="BI24" s="5">
+        <v>176</v>
+      </c>
+      <c r="BJ24" s="5">
+        <v>171</v>
+      </c>
+      <c r="BK24" s="5">
+        <v>140</v>
+      </c>
+      <c r="BL24" s="5">
+        <v>133</v>
+      </c>
+      <c r="BM24" s="5">
+        <v>178</v>
+      </c>
+      <c r="BN24" s="5">
+        <v>131</v>
+      </c>
+      <c r="BO24" s="5">
+        <v>116</v>
+      </c>
+      <c r="BP24" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1153</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1145</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1108</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1023</v>
+      </c>
+      <c r="I25" s="5">
+        <v>979</v>
+      </c>
+      <c r="J25" s="5">
+        <v>935</v>
+      </c>
+      <c r="K25" s="5">
+        <v>756</v>
+      </c>
+      <c r="L25" s="5">
+        <v>690</v>
+      </c>
+      <c r="M25" s="5">
+        <v>780</v>
+      </c>
+      <c r="N25" s="5">
+        <v>728</v>
+      </c>
+      <c r="O25" s="5">
+        <v>651</v>
+      </c>
+      <c r="P25" s="5">
+        <v>627</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>1249</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1211</v>
+      </c>
+      <c r="S25" s="5">
+        <v>1409</v>
+      </c>
+      <c r="T25" s="5">
+        <v>1325</v>
+      </c>
+      <c r="U25" s="5">
+        <v>1241</v>
+      </c>
+      <c r="V25" s="5">
+        <v>1212</v>
+      </c>
+      <c r="W25" s="5">
+        <v>1103</v>
+      </c>
+      <c r="X25" s="5">
+        <v>1494</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>1350</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>1742</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>1689</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>1663</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>1421</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>1389</v>
+      </c>
+      <c r="AE25" s="5">
+        <v>1374</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>1474</v>
+      </c>
+      <c r="AG25" s="5">
+        <v>1379</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>1349</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>1331</v>
+      </c>
+      <c r="AJ25" s="5">
+        <v>1476</v>
+      </c>
+      <c r="AK25" s="5">
+        <v>1875</v>
+      </c>
+      <c r="AL25" s="5">
+        <v>2081</v>
+      </c>
+      <c r="AM25" s="5">
+        <v>1930</v>
+      </c>
+      <c r="AN25" s="5">
+        <v>1857</v>
+      </c>
+      <c r="AO25" s="5">
+        <v>1654</v>
+      </c>
+      <c r="AP25" s="5">
+        <v>1455</v>
+      </c>
+      <c r="AQ25" s="5">
+        <v>1387</v>
+      </c>
+      <c r="AR25" s="5">
+        <v>1373</v>
+      </c>
+      <c r="AS25" s="5">
+        <v>1249</v>
+      </c>
+      <c r="AT25" s="5">
+        <v>1244</v>
+      </c>
+      <c r="AU25" s="5">
+        <v>1244</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>860</v>
+      </c>
+      <c r="AW25" s="5">
+        <v>758</v>
+      </c>
+      <c r="AX25" s="5">
+        <v>1073</v>
+      </c>
+      <c r="AY25" s="5">
+        <v>1059</v>
+      </c>
+      <c r="AZ25" s="5">
+        <v>1059</v>
+      </c>
+      <c r="BA25" s="5">
+        <v>1046</v>
+      </c>
+      <c r="BB25" s="5">
+        <v>964</v>
+      </c>
+      <c r="BC25" s="5">
+        <v>1017</v>
+      </c>
+      <c r="BD25" s="5">
+        <v>999</v>
+      </c>
+      <c r="BE25" s="5">
+        <v>981</v>
+      </c>
+      <c r="BF25" s="5">
+        <v>1335</v>
+      </c>
+      <c r="BG25" s="5">
+        <v>1298</v>
+      </c>
+      <c r="BH25" s="5">
+        <v>1247</v>
+      </c>
+      <c r="BI25" s="5">
+        <v>1235</v>
+      </c>
+      <c r="BJ25" s="5">
+        <v>2074</v>
+      </c>
+      <c r="BK25" s="5">
+        <v>1954</v>
+      </c>
+      <c r="BL25" s="5">
+        <v>2163</v>
+      </c>
+      <c r="BM25" s="5">
+        <v>2219</v>
+      </c>
+      <c r="BN25" s="5">
+        <v>2250</v>
+      </c>
+      <c r="BO25" s="5">
+        <v>2410</v>
+      </c>
+      <c r="BP25" s="5">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="5">
+        <v>8032</v>
+      </c>
+      <c r="F26" s="5">
+        <v>7785</v>
+      </c>
+      <c r="G26" s="5">
+        <v>7538</v>
+      </c>
+      <c r="H26" s="5">
+        <v>7472</v>
+      </c>
+      <c r="I26" s="5">
+        <v>7774</v>
+      </c>
+      <c r="J26" s="5">
+        <v>7514</v>
+      </c>
+      <c r="K26" s="5">
+        <v>7826</v>
+      </c>
+      <c r="L26" s="5">
+        <v>8269</v>
+      </c>
+      <c r="M26" s="5">
+        <v>8077</v>
+      </c>
+      <c r="N26" s="5">
+        <v>8065</v>
+      </c>
+      <c r="O26" s="5">
+        <v>7794</v>
+      </c>
+      <c r="P26" s="5">
+        <v>7630</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>7806</v>
+      </c>
+      <c r="R26" s="5">
+        <v>8237</v>
+      </c>
+      <c r="S26" s="5">
+        <v>7820</v>
+      </c>
+      <c r="T26" s="5">
+        <v>7649</v>
+      </c>
+      <c r="U26" s="5">
+        <v>7455</v>
+      </c>
+      <c r="V26" s="5">
+        <v>8419</v>
+      </c>
+      <c r="W26" s="5">
+        <v>8198</v>
+      </c>
+      <c r="X26" s="5">
+        <v>8033</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>8760</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>8942</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>9421</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>8995</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>8531</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>8385</v>
+      </c>
+      <c r="AE26" s="5">
+        <v>8262</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>8060</v>
+      </c>
+      <c r="AG26" s="5">
+        <v>7866</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>7778</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>7517</v>
+      </c>
+      <c r="AJ26" s="5">
+        <v>7202</v>
+      </c>
+      <c r="AK26" s="5">
+        <v>6919</v>
+      </c>
+      <c r="AL26" s="5">
+        <v>6684</v>
+      </c>
+      <c r="AM26" s="5">
+        <v>6406</v>
+      </c>
+      <c r="AN26" s="5">
+        <v>6122</v>
+      </c>
+      <c r="AO26" s="5">
+        <v>5639</v>
+      </c>
+      <c r="AP26" s="5">
+        <v>5436</v>
+      </c>
+      <c r="AQ26" s="5">
+        <v>5296</v>
+      </c>
+      <c r="AR26" s="5">
+        <v>5077</v>
+      </c>
+      <c r="AS26" s="5">
+        <v>4306</v>
+      </c>
+      <c r="AT26" s="5">
+        <v>3487</v>
+      </c>
+      <c r="AU26" s="5">
+        <v>3276</v>
+      </c>
+      <c r="AV26" s="5">
+        <v>3423</v>
+      </c>
+      <c r="AW26" s="5">
+        <v>3325</v>
+      </c>
+      <c r="AX26" s="5">
+        <v>2922</v>
+      </c>
+      <c r="AY26" s="5">
+        <v>2541</v>
+      </c>
+      <c r="AZ26" s="5">
+        <v>2154</v>
+      </c>
+      <c r="BA26" s="5">
+        <v>2049</v>
+      </c>
+      <c r="BB26" s="5">
+        <v>2493</v>
+      </c>
+      <c r="BC26" s="5">
+        <v>2488</v>
+      </c>
+      <c r="BD26" s="5">
+        <v>2259</v>
+      </c>
+      <c r="BE26" s="5">
+        <v>2070</v>
+      </c>
+      <c r="BF26" s="5">
+        <v>1952</v>
+      </c>
+      <c r="BG26" s="5">
+        <v>1757</v>
+      </c>
+      <c r="BH26" s="5">
+        <v>1721</v>
+      </c>
+      <c r="BI26" s="5">
+        <v>1495</v>
+      </c>
+      <c r="BJ26" s="5">
+        <v>1703</v>
+      </c>
+      <c r="BK26" s="5">
+        <v>1598</v>
+      </c>
+      <c r="BL26" s="5">
+        <v>4386</v>
+      </c>
+      <c r="BM26" s="5">
+        <v>5227</v>
+      </c>
+      <c r="BN26" s="5">
+        <v>6552</v>
+      </c>
+      <c r="BO26" s="5">
+        <v>6519</v>
+      </c>
+      <c r="BP26" s="5">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="5">
+        <v>7785</v>
+      </c>
+      <c r="F27" s="5">
+        <v>11117</v>
+      </c>
+      <c r="G27" s="5">
+        <v>10712</v>
+      </c>
+      <c r="H27" s="5">
+        <v>9341</v>
+      </c>
+      <c r="I27" s="5">
+        <v>9040</v>
+      </c>
+      <c r="J27" s="5">
+        <v>9166</v>
+      </c>
+      <c r="K27" s="5">
+        <v>9707</v>
+      </c>
+      <c r="L27" s="5">
+        <v>10354</v>
+      </c>
+      <c r="M27" s="5">
+        <v>11147</v>
+      </c>
+      <c r="N27" s="5">
+        <v>11257</v>
+      </c>
+      <c r="O27" s="5">
+        <v>12122</v>
+      </c>
+      <c r="P27" s="5">
+        <v>12088</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>13227</v>
+      </c>
+      <c r="R27" s="5">
+        <v>12914</v>
+      </c>
+      <c r="S27" s="5">
+        <v>13149</v>
+      </c>
+      <c r="T27" s="5">
+        <v>13724</v>
+      </c>
+      <c r="U27" s="5">
+        <v>14955</v>
+      </c>
+      <c r="V27" s="5">
+        <v>14896</v>
+      </c>
+      <c r="W27" s="5">
+        <v>15095</v>
+      </c>
+      <c r="X27" s="5">
+        <v>14912</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>14847</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>14673</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>14213</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>14147</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>14060</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>14781</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>14824</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>13476</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>13800</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>14402</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>14250</v>
+      </c>
+      <c r="AJ27" s="5">
+        <v>14078</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>13903</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>13489</v>
+      </c>
+      <c r="AM27" s="5">
+        <v>13060</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>12269</v>
+      </c>
+      <c r="AO27" s="5">
+        <v>11586</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>11099</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>10827</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>10590</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>9971</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>8542</v>
+      </c>
+      <c r="AU27" s="5">
+        <v>8840</v>
+      </c>
+      <c r="AV27" s="5">
+        <v>8841</v>
+      </c>
+      <c r="AW27" s="5">
+        <v>8163</v>
+      </c>
+      <c r="AX27" s="5">
+        <v>7042</v>
+      </c>
+      <c r="AY27" s="5">
+        <v>5581</v>
+      </c>
+      <c r="AZ27" s="5">
+        <v>3617</v>
+      </c>
+      <c r="BA27" s="5">
+        <v>2964</v>
+      </c>
+      <c r="BB27" s="5">
+        <v>2580</v>
+      </c>
+      <c r="BC27" s="5">
+        <v>2123</v>
+      </c>
+      <c r="BD27" s="5">
+        <v>2603</v>
+      </c>
+      <c r="BE27" s="5">
+        <v>2753</v>
+      </c>
+      <c r="BF27" s="5">
+        <v>3074</v>
+      </c>
+      <c r="BG27" s="5">
+        <v>2699</v>
+      </c>
+      <c r="BH27" s="5">
+        <v>2285</v>
+      </c>
+      <c r="BI27" s="5">
+        <v>1794</v>
+      </c>
+      <c r="BJ27" s="5">
+        <v>1449</v>
+      </c>
+      <c r="BK27" s="5">
+        <v>1346</v>
+      </c>
+      <c r="BL27" s="5">
+        <v>1879</v>
+      </c>
+      <c r="BM27" s="5">
+        <v>3124</v>
+      </c>
+      <c r="BN27" s="5">
+        <v>2661</v>
+      </c>
+      <c r="BO27" s="5">
+        <v>2702</v>
+      </c>
+      <c r="BP27" s="5">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" ht="12.95" customHeight="1">
+      <c r="A28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5">
+        <v>353</v>
+      </c>
+      <c r="F28" s="5">
+        <v>446</v>
+      </c>
+      <c r="G28" s="5">
+        <v>735</v>
+      </c>
+      <c r="H28" s="5">
+        <v>914</v>
+      </c>
+      <c r="I28" s="5">
+        <v>971</v>
+      </c>
+      <c r="J28" s="5">
+        <v>971</v>
+      </c>
+      <c r="K28" s="5">
+        <v>903</v>
+      </c>
+      <c r="L28" s="5">
+        <v>914</v>
+      </c>
+      <c r="M28" s="5">
+        <v>1021</v>
+      </c>
+      <c r="N28" s="5">
+        <v>1056</v>
+      </c>
+      <c r="O28" s="5">
+        <v>1183</v>
+      </c>
+      <c r="P28" s="5">
+        <v>1271</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>1280</v>
+      </c>
+      <c r="R28" s="5">
+        <v>1190</v>
+      </c>
+      <c r="S28" s="5">
+        <v>1339</v>
+      </c>
+      <c r="T28" s="5">
+        <v>1260</v>
+      </c>
+      <c r="U28" s="5">
+        <v>1268</v>
+      </c>
+      <c r="V28" s="5">
+        <v>1299</v>
+      </c>
+      <c r="W28" s="5">
+        <v>1275</v>
+      </c>
+      <c r="X28" s="5">
+        <v>1217</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>1275</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>1226</v>
+      </c>
+      <c r="AA28" s="5">
+        <v>1265</v>
+      </c>
+      <c r="AB28" s="5">
+        <v>1295</v>
+      </c>
+      <c r="AC28" s="5">
+        <v>1187</v>
+      </c>
+      <c r="AD28" s="5">
+        <v>1271</v>
+      </c>
+      <c r="AE28" s="5">
+        <v>1227</v>
+      </c>
+      <c r="AF28" s="5">
+        <v>1245</v>
+      </c>
+      <c r="AG28" s="5">
+        <v>1126</v>
+      </c>
+      <c r="AH28" s="5">
+        <v>1218</v>
+      </c>
+      <c r="AI28" s="5">
+        <v>1161</v>
+      </c>
+      <c r="AJ28" s="5">
+        <v>1223</v>
+      </c>
+      <c r="AK28" s="5">
+        <v>1161</v>
+      </c>
+      <c r="AL28" s="5">
+        <v>1116</v>
+      </c>
+      <c r="AM28" s="5">
+        <v>1088</v>
+      </c>
+      <c r="AN28" s="5">
+        <v>1072</v>
+      </c>
+      <c r="AO28" s="5">
+        <v>1057</v>
+      </c>
+      <c r="AP28" s="5">
+        <v>1014</v>
+      </c>
+      <c r="AQ28" s="5">
+        <v>1184</v>
+      </c>
+      <c r="AR28" s="5">
+        <v>1281</v>
+      </c>
+      <c r="AS28" s="5">
+        <v>1337</v>
+      </c>
+      <c r="AT28" s="5">
+        <v>1279</v>
+      </c>
+      <c r="AU28" s="5">
+        <v>1282</v>
+      </c>
+      <c r="AV28" s="5">
+        <v>1250</v>
+      </c>
+      <c r="AW28" s="5">
+        <v>1221</v>
+      </c>
+      <c r="AX28" s="5">
+        <v>1233</v>
+      </c>
+      <c r="AY28" s="5">
+        <v>1208</v>
+      </c>
+      <c r="AZ28" s="5">
+        <v>1095</v>
+      </c>
+      <c r="BA28" s="5">
+        <v>1250</v>
+      </c>
+      <c r="BB28" s="5">
+        <v>1221</v>
+      </c>
+      <c r="BC28" s="5">
+        <v>1131</v>
+      </c>
+      <c r="BD28" s="5">
+        <v>1034</v>
+      </c>
+      <c r="BE28" s="5">
+        <v>1000</v>
+      </c>
+      <c r="BF28" s="5">
+        <v>987</v>
+      </c>
+      <c r="BG28" s="5">
+        <v>933</v>
+      </c>
+      <c r="BH28" s="5">
+        <v>900</v>
+      </c>
+      <c r="BI28" s="5">
+        <v>870</v>
+      </c>
+      <c r="BJ28" s="5">
+        <v>873</v>
+      </c>
+      <c r="BK28" s="5">
+        <v>877</v>
+      </c>
+      <c r="BL28" s="5">
+        <v>836</v>
+      </c>
+      <c r="BM28" s="5">
+        <v>969</v>
+      </c>
+      <c r="BN28" s="5">
+        <v>897</v>
+      </c>
+      <c r="BO28" s="5">
+        <v>891</v>
+      </c>
+      <c r="BP28" s="5">
+        <v>962</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>